--- a/Playground - Formulas.xlsx
+++ b/Playground - Formulas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C645A6-2A0B-4CC2-814E-94C9C1713389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4A8E45-586E-4EA3-A2DA-8BFDD192C96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Max-Min" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1673,7 +1673,7 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -2021,7 +2021,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2092,6 +2092,10 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
+      <c r="J2" cm="1">
+        <f t="array" ref="J2:J10">LEN(B2:B10)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -2121,6 +2125,9 @@
       <c r="I3" s="1">
         <v>42287</v>
       </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -2150,6 +2157,9 @@
       <c r="I4" s="1">
         <v>42986</v>
       </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -2179,6 +2189,9 @@
       <c r="I5" s="1">
         <v>42341</v>
       </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -2208,6 +2221,9 @@
       <c r="I6" s="1">
         <v>42977</v>
       </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -2237,6 +2253,9 @@
       <c r="I7" s="1">
         <v>41528</v>
       </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -2266,6 +2285,9 @@
       <c r="I8" s="1">
         <v>41551</v>
       </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -2295,6 +2317,9 @@
       <c r="I9" s="1">
         <v>42116</v>
       </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2323,6 +2348,9 @@
       </c>
       <c r="I10" s="1">
         <v>40800</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2338,7 +2366,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2689,7 +2717,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3019,7 +3047,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3091,6 +3119,10 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
+      <c r="J2" t="str" cm="1">
+        <f t="array" ref="J2:J10">TRIM(C2:C10)</f>
+        <v>Halpert</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -3120,6 +3152,9 @@
       <c r="I3" s="1">
         <v>42287</v>
       </c>
+      <c r="J3" t="str">
+        <v>Beasley</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -3149,6 +3184,9 @@
       <c r="I4" s="1">
         <v>42986</v>
       </c>
+      <c r="J4" t="str">
+        <v>Schrute</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -3178,6 +3216,9 @@
       <c r="I5" s="1">
         <v>42341</v>
       </c>
+      <c r="J5" t="str">
+        <v>Martin</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -3207,6 +3248,9 @@
       <c r="I6" s="1">
         <v>42977</v>
       </c>
+      <c r="J6" t="str">
+        <v>Flenderson</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -3236,6 +3280,9 @@
       <c r="I7" s="1">
         <v>41528</v>
       </c>
+      <c r="J7" t="str">
+        <v>Scott</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -3265,6 +3312,9 @@
       <c r="I8" s="1">
         <v>41551</v>
       </c>
+      <c r="J8" t="str">
+        <v>Palmer</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -3294,6 +3344,9 @@
       <c r="I9" s="1">
         <v>42116</v>
       </c>
+      <c r="J9" t="str">
+        <v>Hudson</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -3322,6 +3375,9 @@
       </c>
       <c r="I10" s="1">
         <v>40800</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Malone</v>
       </c>
     </row>
   </sheetData>
@@ -3337,7 +3393,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3412,6 +3468,10 @@
       <c r="I2" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="J2" t="str" cm="1">
+        <f t="array" ref="J2:J10">SUBSTITUTE(B2:B10, "a", " ",1)</f>
+        <v>Jim</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -3441,6 +3501,9 @@
       <c r="I3" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="J3" t="str">
+        <v>P m</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -3470,6 +3533,9 @@
       <c r="I4" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="J4" t="str">
+        <v>Dwight</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -3499,6 +3565,9 @@
       <c r="I5" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="J5" t="str">
+        <v xml:space="preserve">Angel </v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -3528,6 +3597,9 @@
       <c r="I6" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="J6" t="str">
+        <v>Toby</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -3557,6 +3629,9 @@
       <c r="I7" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="J7" t="str">
+        <v>Mich el</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -3586,6 +3661,9 @@
       <c r="I8" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="J8" t="str">
+        <v>Meredith</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -3615,6 +3693,9 @@
       <c r="I9" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="J9" t="str">
+        <v>St nley</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -3643,6 +3724,9 @@
       </c>
       <c r="I10" s="2" t="s">
         <v>62</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Kevin</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3694,8 +3778,8 @@
   </sheetPr>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
